--- a/Resources/1992/Advanced_Percentile_1992.xlsx
+++ b/Resources/1992/Advanced_Percentile_1992.xlsx
@@ -1213,40 +1213,40 @@
     <t>haleyja01</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Brad Daugherty</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Mark Price</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Danny Manning</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Detlef Schrempf</t>
@@ -1255,22 +1255,22 @@
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Kevin Johnson</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Jeff Hornacek</t>
   </si>
   <si>
-    <t>Larry Bird*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
+    <t>Larry Bird</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Terry Porter</t>
@@ -1285,7 +1285,7 @@
     <t>Derrick Coleman</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Gary Leonard</t>
@@ -1315,7 +1315,7 @@
     <t>Micheal Williams</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Horace Grant</t>
@@ -1324,7 +1324,7 @@
     <t>Larry Johnson</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Dan Majerle</t>
@@ -1336,10 +1336,10 @@
     <t>Armen Gilliam</t>
   </si>
   <si>
-    <t>Kevin McHale*</t>
-  </si>
-  <si>
-    <t>Drazen Petrovic*</t>
+    <t>Kevin McHale</t>
+  </si>
+  <si>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Kevin Willis</t>
@@ -1363,7 +1363,7 @@
     <t>Dale Ellis</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Mark Jackson</t>
@@ -1372,10 +1372,10 @@
     <t>Ed Pinckney</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
-  </si>
-  <si>
-    <t>Dennis Rodman*</t>
+    <t>Mitch Richmond</t>
+  </si>
+  <si>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Bison Dele</t>
@@ -1411,7 +1411,7 @@
     <t>Danny Ainge</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Rik Smits</t>
@@ -1450,7 +1450,7 @@
     <t>Byron Scott</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Michael Cage</t>
@@ -1513,7 +1513,7 @@
     <t>Kenny Williams</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Terry Catledge</t>
@@ -1852,7 +1852,7 @@
     <t>Muggsy Bogues</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Elden Campbell</t>
@@ -1915,7 +1915,7 @@
     <t>Tom Copa</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>Johnny Dawkins</t>
@@ -2344,7 +2344,7 @@
     <t>Paul Pressey</t>
   </si>
   <si>
-    <t>Ralph Sampson*</t>
+    <t>Ralph Sampson</t>
   </si>
   <si>
     <t>Dave Hoppen</t>
